--- a/src/test/java/Data/Sheet1.xlsx
+++ b/src/test/java/Data/Sheet1.xlsx
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>asda@example.com</t>
-  </si>
-  <si>
-    <t>asda</t>
-  </si>
-  <si>
     <t>dsaa@example.com</t>
   </si>
   <si>
     <t>dsa</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>qwer@example.com</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -96,6 +96,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -382,7 +385,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,19 +395,19 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
